--- a/Power/Calculations.xlsx
+++ b/Power/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgurl\Documents\GitHub\Audio-DSP\Power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{277CEB90-669B-454C-B170-2BFB9CD816D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED971C3-40E6-45BA-8A8B-D4D1182AE36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0386BEA3-3A4B-447E-8F21-6C3687678693}"/>
   </bookViews>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD13C02-D4D6-43AE-A09F-8E8828FEE200}">
   <dimension ref="A1:AP382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="AC5" s="82">
         <f>H18</f>
-        <v>230</v>
+        <v>202.4</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -2002,15 +2002,15 @@
       </c>
       <c r="AN5" s="2">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
-        <v>308.2</v>
+        <v>271.21599999999995</v>
       </c>
       <c r="AO5" s="2">
         <f>Table1[[#This Row],[5V]]*5/1000</f>
-        <v>1.1499999999999999</v>
+        <v>1.012</v>
       </c>
       <c r="AP5" s="2">
         <f>Table1[[#This Row],[5V]]*1.7/1000</f>
-        <v>0.39100000000000001</v>
+        <v>0.34408</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -2078,18 +2078,18 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="82">
         <f>F18</f>
-        <v>1387.5</v>
+        <v>1221</v>
       </c>
       <c r="AM6" s="50">
         <v>90</v>
       </c>
       <c r="AN6" s="2">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
-        <v>1526.2500000000002</v>
+        <v>1343.1000000000001</v>
       </c>
       <c r="AO6" s="83">
         <f>(AN6*5/1000)+((2-(Table1[[#This Row],[Efficiency]]/100))*AO5)</f>
-        <v>8.8962500000000002</v>
+        <v>7.8287000000000004</v>
       </c>
       <c r="AP6" s="2"/>
     </row>
@@ -2155,7 +2155,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="82">
         <f>D18</f>
-        <v>237.5</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -2169,15 +2169,15 @@
       </c>
       <c r="AN7" s="2">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
-        <v>326.5625</v>
+        <v>287.37500000000006</v>
       </c>
       <c r="AO7" s="2">
         <f>Table1[[#This Row],[8V(Buck)]]*8/1000</f>
-        <v>1.9</v>
+        <v>1.6720000000000002</v>
       </c>
       <c r="AP7" s="2">
         <f>3*Table1[[#This Row],[8V(Buck)]]/1000</f>
-        <v>0.71250000000000002</v>
+        <v>0.62700000000000011</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="AO8" s="83">
         <f>(AN8/1000)*8+((2-(Table1[[#This Row],[Efficiency]]/100))*AO7)</f>
-        <v>2.09</v>
+        <v>1.8392000000000004</v>
       </c>
       <c r="AP8" s="2"/>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="AO10" s="83">
         <f>(AN10*12/1000)+((2-(Table1[[#This Row],[Efficiency]]/100))*AO14)</f>
-        <v>11.397952500000004</v>
+        <v>10.084054200000002</v>
       </c>
       <c r="AP10" s="2"/>
     </row>
@@ -2494,7 +2494,7 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="82">
         <f>J18/2</f>
-        <v>615</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="50">
@@ -2502,15 +2502,15 @@
       </c>
       <c r="AN11" s="2">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
-        <v>738</v>
+        <v>649.44000000000005</v>
       </c>
       <c r="AO11" s="2">
         <f>Table1[[#This Row],[-15V(buck)]]*15/1000</f>
-        <v>9.2249999999999996</v>
+        <v>8.1180000000000003</v>
       </c>
       <c r="AP11" s="2">
         <f>3*Table1[[#This Row],[-15V(buck)]]/1000</f>
-        <v>1.845</v>
+        <v>1.6236000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="82">
         <f>L18/2</f>
-        <v>615</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="50">
@@ -2580,15 +2580,15 @@
       </c>
       <c r="AN12" s="2">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
-        <v>738</v>
+        <v>649.44000000000005</v>
       </c>
       <c r="AO12" s="2">
         <f>Table1[[#This Row],[-15V(buck)]]*15/1000</f>
-        <v>9.2249999999999996</v>
+        <v>8.1180000000000003</v>
       </c>
       <c r="AP12" s="2">
         <f>3*Table1[[#This Row],[-15V(buck)]]/1000</f>
-        <v>1.845</v>
+        <v>1.6236000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="AO13" s="83">
         <f>(AN13*15/1000)+((2-(Table1[[#This Row],[Efficiency]]/100))*AO11)</f>
-        <v>10.147500000000001</v>
+        <v>8.929800000000002</v>
       </c>
       <c r="AP13" s="2"/>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="AO14" s="2">
         <f>(AN14*15/1000)+((2-(Table1[[#This Row],[Efficiency]]/100))*AO12)</f>
-        <v>9.953775000000002</v>
+        <v>8.7593220000000009</v>
       </c>
       <c r="AP14" s="2"/>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="AO15" s="84">
         <f>((2-(Table1[[#This Row],[Efficiency]]/100))*SUM(AO13,AO10,AO9,AO8,AO6))</f>
-        <v>64.824872750000011</v>
+        <v>60.589929620000007</v>
       </c>
       <c r="AP15" s="2"/>
     </row>
@@ -2837,35 +2837,35 @@
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M17" s="68"/>
       <c r="N17" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O17" s="68"/>
       <c r="P17" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="71"/>
       <c r="R17" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -2879,42 +2879,42 @@
       <c r="C18" s="22"/>
       <c r="D18" s="12">
         <f>D16*(D17/100+(1))</f>
-        <v>237.5</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="12">
         <f>F16*(F17/100+(1))</f>
-        <v>1387.5</v>
+        <v>1221</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="18">
         <f>H16*(H17/100+(1))</f>
-        <v>230</v>
+        <v>202.4</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="18">
         <f>J16*(J17/100+(1))</f>
-        <v>1230</v>
+        <v>1082.4000000000001</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="18">
         <f>L16*(L17/100+(1))</f>
-        <v>1230</v>
+        <v>1082.4000000000001</v>
       </c>
       <c r="M18" s="69"/>
       <c r="N18" s="13">
         <f>N16*(N17/100+(1))</f>
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="13">
         <f>P16*(P17/100+(1))</f>
-        <v>2542.5</v>
+        <v>2237.4</v>
       </c>
       <c r="Q18" s="72"/>
       <c r="R18" s="13">
         <f>R16*(R17/100+(1))</f>
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="B2">
         <f>Sheet1!AC5</f>
-        <v>230</v>
+        <v>202.4</v>
       </c>
       <c r="C2">
         <f>Sheet1!AD5</f>
@@ -11452,11 +11452,11 @@
       </c>
       <c r="M2">
         <f>Sheet1!AN5</f>
-        <v>308.2</v>
+        <v>271.21599999999995</v>
       </c>
       <c r="N2">
         <f>Sheet1!AO5</f>
-        <v>1.1499999999999999</v>
+        <v>1.012</v>
       </c>
       <c r="O2" t="e">
         <f>Sheet1!#REF!</f>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="P2">
         <f>Sheet1!AP5</f>
-        <v>0.39100000000000001</v>
+        <v>0.34408</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -11510,7 +11510,7 @@
       </c>
       <c r="K3">
         <f>Sheet1!AL6</f>
-        <v>1387.5</v>
+        <v>1221</v>
       </c>
       <c r="L3">
         <f>Sheet1!AM6</f>
@@ -11518,11 +11518,11 @@
       </c>
       <c r="M3">
         <f>Sheet1!AN6</f>
-        <v>1526.2500000000002</v>
+        <v>1343.1000000000001</v>
       </c>
       <c r="N3">
         <f>Sheet1!AO6</f>
-        <v>8.8962500000000002</v>
+        <v>7.8287000000000004</v>
       </c>
       <c r="O3" t="e">
         <f>Sheet1!#REF!</f>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="D4">
         <f>Sheet1!AE7</f>
-        <v>237.5</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="E4">
         <f>Sheet1!AF7</f>
@@ -11584,11 +11584,11 @@
       </c>
       <c r="M4">
         <f>Sheet1!AN7</f>
-        <v>326.5625</v>
+        <v>287.37500000000006</v>
       </c>
       <c r="N4">
         <f>Sheet1!AO7</f>
-        <v>1.9</v>
+        <v>1.6720000000000002</v>
       </c>
       <c r="O4" t="e">
         <f>Sheet1!#REF!</f>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="P4">
         <f>Sheet1!AP7</f>
-        <v>0.71250000000000002</v>
+        <v>0.62700000000000011</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="N5">
         <f>Sheet1!AO8</f>
-        <v>2.09</v>
+        <v>1.8392000000000004</v>
       </c>
       <c r="O5" t="e">
         <f>Sheet1!#REF!</f>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="N7">
         <f>Sheet1!AO10</f>
-        <v>11.397952500000004</v>
+        <v>10.084054200000002</v>
       </c>
       <c r="O7" t="e">
         <f>Sheet1!#REF!</f>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="J8">
         <f>Sheet1!AK11</f>
-        <v>615</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="K8">
         <f>Sheet1!AL11</f>
@@ -11848,11 +11848,11 @@
       </c>
       <c r="M8">
         <f>Sheet1!AN11</f>
-        <v>738</v>
+        <v>649.44000000000005</v>
       </c>
       <c r="N8">
         <f>Sheet1!AO11</f>
-        <v>9.2249999999999996</v>
+        <v>8.1180000000000003</v>
       </c>
       <c r="O8" t="e">
         <f>Sheet1!#REF!</f>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="P8">
         <f>Sheet1!AP11</f>
-        <v>1.845</v>
+        <v>1.6236000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -11902,7 +11902,7 @@
       </c>
       <c r="J9">
         <f>Sheet1!AK12</f>
-        <v>615</v>
+        <v>541.20000000000005</v>
       </c>
       <c r="K9">
         <f>Sheet1!AL12</f>
@@ -11914,11 +11914,11 @@
       </c>
       <c r="M9">
         <f>Sheet1!AN12</f>
-        <v>738</v>
+        <v>649.44000000000005</v>
       </c>
       <c r="N9">
         <f>Sheet1!AO12</f>
-        <v>9.2249999999999996</v>
+        <v>8.1180000000000003</v>
       </c>
       <c r="O9" t="e">
         <f>Sheet1!#REF!</f>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="P9">
         <f>Sheet1!AP12</f>
-        <v>1.845</v>
+        <v>1.6236000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="N10">
         <f>Sheet1!AO13</f>
-        <v>10.147500000000001</v>
+        <v>8.929800000000002</v>
       </c>
       <c r="O10" t="e">
         <f>Sheet1!#REF!</f>
@@ -12050,7 +12050,7 @@
       </c>
       <c r="N11">
         <f>Sheet1!AO14</f>
-        <v>9.953775000000002</v>
+        <v>8.7593220000000009</v>
       </c>
       <c r="O11" t="e">
         <f>Sheet1!#REF!</f>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="N12">
         <f>Sheet1!AO15</f>
-        <v>64.824872750000011</v>
+        <v>60.589929620000007</v>
       </c>
       <c r="O12" t="e">
         <f>Sheet1!#REF!</f>

--- a/Power/Calculations.xlsx
+++ b/Power/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgurl\Documents\GitHub\Audio-DSP\Power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED971C3-40E6-45BA-8A8B-D4D1182AE36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D5A757-E398-4AFE-BC33-AE2C4C3B2367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0386BEA3-3A4B-447E-8F21-6C3687678693}"/>
   </bookViews>
@@ -938,6 +938,29 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="7" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,29 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="7" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1217,10 +1217,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7F7FB8B3-86BD-4D61-91E5-93192587A80D}" name="Table5" displayName="Table5" ref="B2:U18" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="B2:U18" xr:uid="{7F7FB8B3-86BD-4D61-91E5-93192587A80D}"/>
@@ -1257,29 +1253,29 @@
     <tableColumn id="1" xr3:uid="{B7437D30-BD2A-4869-8D9C-B73257F56C96}" name="Component" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{2FE39D24-5676-47D9-9ACD-8D167042FBC4}" name="5V" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{CE5F969F-2814-4899-AD91-B6D9FCAEBAA1}" name="5V(clean)" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{4B083723-B87D-4282-B4A5-8CA8A4FB01BB}" name="8V(Buck)" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{BBDB06BB-17DA-4D30-9695-1329DA27B381}" name="12V(Buck)" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C59D4320-00AB-4C7D-80AF-5F3C87DDAF75}" name="12V(Buck)2" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{2B95F5D5-A4CE-4D79-BA14-C7D12907EDDB}" name="12V(clean)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{94BC6B2F-1B2C-4362-812C-23B1691E634B}" name="-12V(clean)" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{687D5AD9-87F5-4399-9E93-BB945E69C014}" name="15V(buck)" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{4423E226-ADD6-4A8B-BF9A-2814C880CE29}" name="-15V(buck)" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{F65CF11A-4ED2-40F5-9F70-5B1F5E47909E}" name="18V" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{8D4C847D-7509-4A79-9534-8762EAD1E6E2}" name="Efficiency" dataDxfId="5" dataCellStyle="Input"/>
-    <tableColumn id="16" xr3:uid="{FA81E918-536A-4E6A-BF9A-F9F2BA853372}" name="Total current(mA)" dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{4B083723-B87D-4282-B4A5-8CA8A4FB01BB}" name="8V(Buck)" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{BBDB06BB-17DA-4D30-9695-1329DA27B381}" name="12V(Buck)" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C59D4320-00AB-4C7D-80AF-5F3C87DDAF75}" name="12V(Buck)2" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{2B95F5D5-A4CE-4D79-BA14-C7D12907EDDB}" name="12V(clean)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{94BC6B2F-1B2C-4362-812C-23B1691E634B}" name="-12V(clean)" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{687D5AD9-87F5-4399-9E93-BB945E69C014}" name="15V(buck)" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{4423E226-ADD6-4A8B-BF9A-2814C880CE29}" name="-15V(buck)" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{F65CF11A-4ED2-40F5-9F70-5B1F5E47909E}" name="18V" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{8D4C847D-7509-4A79-9534-8762EAD1E6E2}" name="Efficiency" dataDxfId="4" dataCellStyle="Input"/>
+    <tableColumn id="16" xr3:uid="{FA81E918-536A-4E6A-BF9A-F9F2BA853372}" name="Total current(mA)" dataDxfId="3">
       <calculatedColumnFormula>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{016F18A3-47E5-4CE9-B4E1-69C03F7902AD}" name="Power " dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{016F18A3-47E5-4CE9-B4E1-69C03F7902AD}" name="Power " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CA74AF0F-A39B-4616-84ED-EDBB74A04307}" name="Lin pw diss" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{CA74AF0F-A39B-4616-84ED-EDBB74A04307}" name="Lin pw diss" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DF0B4835-3CF3-426C-9BF5-116CD3AF05A8}" name="Table4" displayName="Table4" ref="A1:P12" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DF0B4835-3CF3-426C-9BF5-116CD3AF05A8}" name="Table4" displayName="Table4" ref="A1:P12" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:P12" xr:uid="{DF0B4835-3CF3-426C-9BF5-116CD3AF05A8}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{CF12117D-5534-4454-B8B7-EC3142915F94}" name="Component">
@@ -1654,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD13C02-D4D6-43AE-A09F-8E8828FEE200}">
   <dimension ref="A1:AP382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,15 +1689,15 @@
   <sheetData>
     <row r="1" spans="1:42" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1819,15 +1815,15 @@
         <v>2</v>
       </c>
       <c r="U3" s="20"/>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="85"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
@@ -1984,9 +1980,9 @@
       <c r="AB5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="82">
+      <c r="AC5" s="73">
         <f>H18</f>
-        <v>202.4</v>
+        <v>276</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -2002,15 +1998,15 @@
       </c>
       <c r="AN5" s="2">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
-        <v>271.21599999999995</v>
+        <v>369.84</v>
       </c>
       <c r="AO5" s="2">
         <f>Table1[[#This Row],[5V]]*5/1000</f>
-        <v>1.012</v>
+        <v>1.38</v>
       </c>
       <c r="AP5" s="2">
         <f>Table1[[#This Row],[5V]]*1.7/1000</f>
-        <v>0.34408</v>
+        <v>0.46920000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -2076,20 +2072,20 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-      <c r="AL6" s="82">
+      <c r="AL6" s="73">
         <f>F18</f>
-        <v>1221</v>
+        <v>1665</v>
       </c>
       <c r="AM6" s="50">
         <v>90</v>
       </c>
       <c r="AN6" s="2">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
-        <v>1343.1000000000001</v>
-      </c>
-      <c r="AO6" s="83">
+        <v>1831.5000000000002</v>
+      </c>
+      <c r="AO6" s="74">
         <f>(AN6*5/1000)+((2-(Table1[[#This Row],[Efficiency]]/100))*AO5)</f>
-        <v>7.8287000000000004</v>
+        <v>10.675500000000003</v>
       </c>
       <c r="AP6" s="2"/>
     </row>
@@ -2153,9 +2149,9 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="82">
+      <c r="AE7" s="73">
         <f>D18</f>
-        <v>209.00000000000003</v>
+        <v>285</v>
       </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -2169,15 +2165,15 @@
       </c>
       <c r="AN7" s="2">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
-        <v>287.37500000000006</v>
+        <v>391.875</v>
       </c>
       <c r="AO7" s="2">
         <f>Table1[[#This Row],[8V(Buck)]]*8/1000</f>
-        <v>1.6720000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AP7" s="2">
         <f>3*Table1[[#This Row],[8V(Buck)]]/1000</f>
-        <v>0.62700000000000011</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -2253,9 +2249,9 @@
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="83">
+      <c r="AO8" s="74">
         <f>(AN8/1000)*8+((2-(Table1[[#This Row],[Efficiency]]/100))*AO7)</f>
-        <v>1.8392000000000004</v>
+        <v>2.508</v>
       </c>
       <c r="AP8" s="2"/>
     </row>
@@ -2324,7 +2320,7 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="82">
+      <c r="AL9" s="73">
         <f>P5</f>
         <v>2000</v>
       </c>
@@ -2335,7 +2331,7 @@
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
         <v>2200</v>
       </c>
-      <c r="AO9" s="83">
+      <c r="AO9" s="74">
         <f>AN9*12/1000</f>
         <v>26.4</v>
       </c>
@@ -2420,7 +2416,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
-      <c r="AL10" s="82">
+      <c r="AL10" s="73">
         <v>34</v>
       </c>
       <c r="AM10" s="50">
@@ -2430,9 +2426,9 @@
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
         <v>37.400000000000006</v>
       </c>
-      <c r="AO10" s="83">
+      <c r="AO10" s="74">
         <f>(AN10*12/1000)+((2-(Table1[[#This Row],[Efficiency]]/100))*AO14)</f>
-        <v>10.084054200000002</v>
+        <v>13.587783000000003</v>
       </c>
       <c r="AP10" s="2"/>
     </row>
@@ -2492,9 +2488,9 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-      <c r="AK11" s="82">
+      <c r="AK11" s="73">
         <f>J18/2</f>
-        <v>541.20000000000005</v>
+        <v>738</v>
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="50">
@@ -2502,15 +2498,15 @@
       </c>
       <c r="AN11" s="2">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
-        <v>649.44000000000005</v>
+        <v>885.6</v>
       </c>
       <c r="AO11" s="2">
         <f>Table1[[#This Row],[-15V(buck)]]*15/1000</f>
-        <v>8.1180000000000003</v>
+        <v>11.07</v>
       </c>
       <c r="AP11" s="2">
         <f>3*Table1[[#This Row],[-15V(buck)]]/1000</f>
-        <v>1.6236000000000002</v>
+        <v>2.214</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -2570,9 +2566,9 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="82">
+      <c r="AK12" s="73">
         <f>L18/2</f>
-        <v>541.20000000000005</v>
+        <v>738</v>
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="50">
@@ -2580,15 +2576,15 @@
       </c>
       <c r="AN12" s="2">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
-        <v>649.44000000000005</v>
+        <v>885.6</v>
       </c>
       <c r="AO12" s="2">
         <f>Table1[[#This Row],[-15V(buck)]]*15/1000</f>
-        <v>8.1180000000000003</v>
+        <v>11.07</v>
       </c>
       <c r="AP12" s="2">
         <f>3*Table1[[#This Row],[-15V(buck)]]/1000</f>
-        <v>1.6236000000000002</v>
+        <v>2.214</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -2656,9 +2652,9 @@
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
         <v>0</v>
       </c>
-      <c r="AO13" s="83">
+      <c r="AO13" s="74">
         <f>(AN13*15/1000)+((2-(Table1[[#This Row],[Efficiency]]/100))*AO11)</f>
-        <v>8.929800000000002</v>
+        <v>12.177000000000001</v>
       </c>
       <c r="AP13" s="2"/>
     </row>
@@ -2729,7 +2725,7 @@
       </c>
       <c r="AO14" s="2">
         <f>(AN14*15/1000)+((2-(Table1[[#This Row],[Efficiency]]/100))*AO12)</f>
-        <v>8.7593220000000009</v>
+        <v>11.944530000000002</v>
       </c>
       <c r="AP14" s="2"/>
     </row>
@@ -2756,7 +2752,7 @@
       <c r="S15" s="48"/>
       <c r="T15" s="48"/>
       <c r="U15" s="48"/>
-      <c r="AB15" s="85" t="s">
+      <c r="AB15" s="76" t="s">
         <v>28</v>
       </c>
       <c r="AC15" s="2"/>
@@ -2772,13 +2768,13 @@
       <c r="AM15" s="50">
         <v>90</v>
       </c>
-      <c r="AN15" s="84">
+      <c r="AN15" s="75">
         <f>(SUM(Table1[[#This Row],[5V]:[18V]])*((1-(Table1[[#This Row],[Efficiency]]/100))+1))</f>
         <v>0</v>
       </c>
-      <c r="AO15" s="84">
+      <c r="AO15" s="75">
         <f>((2-(Table1[[#This Row],[Efficiency]]/100))*SUM(AO13,AO10,AO9,AO8,AO6))</f>
-        <v>60.589929620000007</v>
+        <v>71.88311130000001</v>
       </c>
       <c r="AP15" s="2"/>
     </row>
@@ -2837,35 +2833,35 @@
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M17" s="68"/>
       <c r="N17" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O17" s="68"/>
       <c r="P17" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="71"/>
       <c r="R17" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -2879,42 +2875,42 @@
       <c r="C18" s="22"/>
       <c r="D18" s="12">
         <f>D16*(D17/100+(1))</f>
-        <v>209.00000000000003</v>
+        <v>285</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="12">
         <f>F16*(F17/100+(1))</f>
-        <v>1221</v>
+        <v>1665</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="18">
         <f>H16*(H17/100+(1))</f>
-        <v>202.4</v>
+        <v>276</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="18">
         <f>J16*(J17/100+(1))</f>
-        <v>1082.4000000000001</v>
+        <v>1476</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="18">
         <f>L16*(L17/100+(1))</f>
-        <v>1082.4000000000001</v>
+        <v>1476</v>
       </c>
       <c r="M18" s="69"/>
       <c r="N18" s="13">
         <f>N16*(N17/100+(1))</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="13">
         <f>P16*(P17/100+(1))</f>
-        <v>2237.4</v>
+        <v>3051</v>
       </c>
       <c r="Q18" s="72"/>
       <c r="R18" s="13">
         <f>R16*(R17/100+(1))</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
@@ -2922,18 +2918,18 @@
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
       <c r="N19" s="86"/>
       <c r="O19" s="86"/>
       <c r="P19" s="86"/>
@@ -2957,14 +2953,14 @@
       <c r="K20" s="77"/>
       <c r="L20" s="77"/>
       <c r="M20" s="77"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="77"/>
@@ -2979,14 +2975,14 @@
       <c r="K21" s="77"/>
       <c r="L21" s="77"/>
       <c r="M21" s="77"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="77"/>
@@ -3001,110 +2997,110 @@
       <c r="K22" s="77"/>
       <c r="L22" s="77"/>
       <c r="M22" s="77"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="81"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="77"/>
@@ -3119,14 +3115,14 @@
       <c r="K27" s="77"/>
       <c r="L27" s="77"/>
       <c r="M27" s="77"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="77"/>
@@ -3141,14 +3137,14 @@
       <c r="K28" s="77"/>
       <c r="L28" s="77"/>
       <c r="M28" s="77"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="77"/>
@@ -3163,14 +3159,14 @@
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
       <c r="M29" s="77"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="77"/>
@@ -3185,14 +3181,14 @@
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>
       <c r="M30" s="77"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="77"/>
@@ -3207,14 +3203,14 @@
       <c r="K31" s="77"/>
       <c r="L31" s="77"/>
       <c r="M31" s="77"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="77"/>
@@ -3229,14 +3225,14 @@
       <c r="K32" s="77"/>
       <c r="L32" s="77"/>
       <c r="M32" s="77"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="80"/>
-      <c r="U32" s="80"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="77"/>
@@ -3251,14 +3247,14 @@
       <c r="K33" s="77"/>
       <c r="L33" s="77"/>
       <c r="M33" s="77"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="77"/>
@@ -3273,14 +3269,14 @@
       <c r="K34" s="77"/>
       <c r="L34" s="77"/>
       <c r="M34" s="77"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="77"/>
@@ -3295,14 +3291,14 @@
       <c r="K35" s="77"/>
       <c r="L35" s="77"/>
       <c r="M35" s="77"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="77"/>
@@ -10940,314 +10936,57 @@
     </row>
   </sheetData>
   <mergeCells count="383">
-    <mergeCell ref="B379:U379"/>
-    <mergeCell ref="B380:U380"/>
-    <mergeCell ref="B381:U381"/>
-    <mergeCell ref="B382:U382"/>
-    <mergeCell ref="B374:U374"/>
-    <mergeCell ref="B375:U375"/>
-    <mergeCell ref="B376:U376"/>
-    <mergeCell ref="B377:U377"/>
-    <mergeCell ref="B378:U378"/>
-    <mergeCell ref="B369:U369"/>
-    <mergeCell ref="B370:U370"/>
-    <mergeCell ref="B371:U371"/>
-    <mergeCell ref="B372:U372"/>
-    <mergeCell ref="B373:U373"/>
-    <mergeCell ref="B364:U364"/>
-    <mergeCell ref="B365:U365"/>
-    <mergeCell ref="B366:U366"/>
-    <mergeCell ref="B367:U367"/>
-    <mergeCell ref="B368:U368"/>
-    <mergeCell ref="B359:U359"/>
-    <mergeCell ref="B360:U360"/>
-    <mergeCell ref="B361:U361"/>
-    <mergeCell ref="B362:U362"/>
-    <mergeCell ref="B363:U363"/>
-    <mergeCell ref="B354:U354"/>
-    <mergeCell ref="B355:U355"/>
-    <mergeCell ref="B356:U356"/>
-    <mergeCell ref="B357:U357"/>
-    <mergeCell ref="B358:U358"/>
-    <mergeCell ref="B349:U349"/>
-    <mergeCell ref="B350:U350"/>
-    <mergeCell ref="B351:U351"/>
-    <mergeCell ref="B352:U352"/>
-    <mergeCell ref="B353:U353"/>
-    <mergeCell ref="B344:U344"/>
-    <mergeCell ref="B345:U345"/>
-    <mergeCell ref="B346:U346"/>
-    <mergeCell ref="B347:U347"/>
-    <mergeCell ref="B348:U348"/>
-    <mergeCell ref="B339:U339"/>
-    <mergeCell ref="B340:U340"/>
-    <mergeCell ref="B341:U341"/>
-    <mergeCell ref="B342:U342"/>
-    <mergeCell ref="B343:U343"/>
-    <mergeCell ref="B334:U334"/>
-    <mergeCell ref="B335:U335"/>
-    <mergeCell ref="B336:U336"/>
-    <mergeCell ref="B337:U337"/>
-    <mergeCell ref="B338:U338"/>
-    <mergeCell ref="B329:U329"/>
-    <mergeCell ref="B330:U330"/>
-    <mergeCell ref="B331:U331"/>
-    <mergeCell ref="B332:U332"/>
-    <mergeCell ref="B333:U333"/>
-    <mergeCell ref="B324:U324"/>
-    <mergeCell ref="B325:U325"/>
-    <mergeCell ref="B326:U326"/>
-    <mergeCell ref="B327:U327"/>
-    <mergeCell ref="B328:U328"/>
-    <mergeCell ref="B319:U319"/>
-    <mergeCell ref="B320:U320"/>
-    <mergeCell ref="B321:U321"/>
-    <mergeCell ref="B322:U322"/>
-    <mergeCell ref="B323:U323"/>
-    <mergeCell ref="B314:U314"/>
-    <mergeCell ref="B315:U315"/>
-    <mergeCell ref="B316:U316"/>
-    <mergeCell ref="B317:U317"/>
-    <mergeCell ref="B318:U318"/>
-    <mergeCell ref="B309:U309"/>
-    <mergeCell ref="B310:U310"/>
-    <mergeCell ref="B311:U311"/>
-    <mergeCell ref="B312:U312"/>
-    <mergeCell ref="B313:U313"/>
-    <mergeCell ref="B304:U304"/>
-    <mergeCell ref="B305:U305"/>
-    <mergeCell ref="B306:U306"/>
-    <mergeCell ref="B307:U307"/>
-    <mergeCell ref="B308:U308"/>
-    <mergeCell ref="B299:U299"/>
-    <mergeCell ref="B300:U300"/>
-    <mergeCell ref="B301:U301"/>
-    <mergeCell ref="B302:U302"/>
-    <mergeCell ref="B303:U303"/>
-    <mergeCell ref="B294:U294"/>
-    <mergeCell ref="B295:U295"/>
-    <mergeCell ref="B296:U296"/>
-    <mergeCell ref="B297:U297"/>
-    <mergeCell ref="B298:U298"/>
-    <mergeCell ref="B289:U289"/>
-    <mergeCell ref="B290:U290"/>
-    <mergeCell ref="B291:U291"/>
-    <mergeCell ref="B292:U292"/>
-    <mergeCell ref="B293:U293"/>
-    <mergeCell ref="B284:U284"/>
-    <mergeCell ref="B285:U285"/>
-    <mergeCell ref="B286:U286"/>
-    <mergeCell ref="B287:U287"/>
-    <mergeCell ref="B288:U288"/>
-    <mergeCell ref="B279:U279"/>
-    <mergeCell ref="B280:U280"/>
-    <mergeCell ref="B281:U281"/>
-    <mergeCell ref="B282:U282"/>
-    <mergeCell ref="B283:U283"/>
-    <mergeCell ref="B274:U274"/>
-    <mergeCell ref="B275:U275"/>
-    <mergeCell ref="B276:U276"/>
-    <mergeCell ref="B277:U277"/>
-    <mergeCell ref="B278:U278"/>
-    <mergeCell ref="B269:U269"/>
-    <mergeCell ref="B270:U270"/>
-    <mergeCell ref="B271:U271"/>
-    <mergeCell ref="B272:U272"/>
-    <mergeCell ref="B273:U273"/>
-    <mergeCell ref="B264:U264"/>
-    <mergeCell ref="B265:U265"/>
-    <mergeCell ref="B266:U266"/>
-    <mergeCell ref="B267:U267"/>
-    <mergeCell ref="B268:U268"/>
-    <mergeCell ref="B259:U259"/>
-    <mergeCell ref="B260:U260"/>
-    <mergeCell ref="B261:U261"/>
-    <mergeCell ref="B262:U262"/>
-    <mergeCell ref="B263:U263"/>
-    <mergeCell ref="B254:U254"/>
-    <mergeCell ref="B255:U255"/>
-    <mergeCell ref="B256:U256"/>
-    <mergeCell ref="B257:U257"/>
-    <mergeCell ref="B258:U258"/>
-    <mergeCell ref="B249:U249"/>
-    <mergeCell ref="B250:U250"/>
-    <mergeCell ref="B251:U251"/>
-    <mergeCell ref="B252:U252"/>
-    <mergeCell ref="B253:U253"/>
-    <mergeCell ref="B244:U244"/>
-    <mergeCell ref="B245:U245"/>
-    <mergeCell ref="B246:U246"/>
-    <mergeCell ref="B247:U247"/>
-    <mergeCell ref="B248:U248"/>
-    <mergeCell ref="B239:U239"/>
-    <mergeCell ref="B240:U240"/>
-    <mergeCell ref="B241:U241"/>
-    <mergeCell ref="B242:U242"/>
-    <mergeCell ref="B243:U243"/>
-    <mergeCell ref="B234:U234"/>
-    <mergeCell ref="B235:U235"/>
-    <mergeCell ref="B236:U236"/>
-    <mergeCell ref="B237:U237"/>
-    <mergeCell ref="B238:U238"/>
-    <mergeCell ref="B229:U229"/>
-    <mergeCell ref="B230:U230"/>
-    <mergeCell ref="B231:U231"/>
-    <mergeCell ref="B232:U232"/>
-    <mergeCell ref="B233:U233"/>
-    <mergeCell ref="B224:U224"/>
-    <mergeCell ref="B225:U225"/>
-    <mergeCell ref="B226:U226"/>
-    <mergeCell ref="B227:U227"/>
-    <mergeCell ref="B228:U228"/>
-    <mergeCell ref="B219:U219"/>
-    <mergeCell ref="B220:U220"/>
-    <mergeCell ref="B221:U221"/>
-    <mergeCell ref="B222:U222"/>
-    <mergeCell ref="B223:U223"/>
-    <mergeCell ref="B214:U214"/>
-    <mergeCell ref="B215:U215"/>
-    <mergeCell ref="B216:U216"/>
-    <mergeCell ref="B217:U217"/>
-    <mergeCell ref="B218:U218"/>
-    <mergeCell ref="B209:U209"/>
-    <mergeCell ref="B210:U210"/>
-    <mergeCell ref="B211:U211"/>
-    <mergeCell ref="B212:U212"/>
-    <mergeCell ref="B213:U213"/>
-    <mergeCell ref="B204:U204"/>
-    <mergeCell ref="B205:U205"/>
-    <mergeCell ref="B206:U206"/>
-    <mergeCell ref="B207:U207"/>
-    <mergeCell ref="B208:U208"/>
-    <mergeCell ref="B199:U199"/>
-    <mergeCell ref="B200:U200"/>
-    <mergeCell ref="B201:U201"/>
-    <mergeCell ref="B202:U202"/>
-    <mergeCell ref="B203:U203"/>
-    <mergeCell ref="B194:U194"/>
-    <mergeCell ref="B195:U195"/>
-    <mergeCell ref="B196:U196"/>
-    <mergeCell ref="B197:U197"/>
-    <mergeCell ref="B198:U198"/>
-    <mergeCell ref="B189:U189"/>
-    <mergeCell ref="B190:U190"/>
-    <mergeCell ref="B191:U191"/>
-    <mergeCell ref="B192:U192"/>
-    <mergeCell ref="B193:U193"/>
-    <mergeCell ref="B184:U184"/>
-    <mergeCell ref="B185:U185"/>
-    <mergeCell ref="B186:U186"/>
-    <mergeCell ref="B187:U187"/>
-    <mergeCell ref="B188:U188"/>
-    <mergeCell ref="B179:U179"/>
-    <mergeCell ref="B180:U180"/>
-    <mergeCell ref="B181:U181"/>
-    <mergeCell ref="B182:U182"/>
-    <mergeCell ref="B183:U183"/>
-    <mergeCell ref="B174:U174"/>
-    <mergeCell ref="B175:U175"/>
-    <mergeCell ref="B176:U176"/>
-    <mergeCell ref="B177:U177"/>
-    <mergeCell ref="B178:U178"/>
-    <mergeCell ref="B169:U169"/>
-    <mergeCell ref="B170:U170"/>
-    <mergeCell ref="B171:U171"/>
-    <mergeCell ref="B172:U172"/>
-    <mergeCell ref="B173:U173"/>
-    <mergeCell ref="B164:U164"/>
-    <mergeCell ref="B165:U165"/>
-    <mergeCell ref="B166:U166"/>
-    <mergeCell ref="B167:U167"/>
-    <mergeCell ref="B168:U168"/>
-    <mergeCell ref="B159:U159"/>
-    <mergeCell ref="B160:U160"/>
-    <mergeCell ref="B161:U161"/>
-    <mergeCell ref="B162:U162"/>
-    <mergeCell ref="B163:U163"/>
-    <mergeCell ref="B154:U154"/>
-    <mergeCell ref="B155:U155"/>
-    <mergeCell ref="B156:U156"/>
-    <mergeCell ref="B157:U157"/>
-    <mergeCell ref="B158:U158"/>
-    <mergeCell ref="B149:U149"/>
-    <mergeCell ref="B150:U150"/>
-    <mergeCell ref="B151:U151"/>
-    <mergeCell ref="B152:U152"/>
-    <mergeCell ref="B153:U153"/>
-    <mergeCell ref="B144:U144"/>
-    <mergeCell ref="B145:U145"/>
-    <mergeCell ref="B146:U146"/>
-    <mergeCell ref="B147:U147"/>
-    <mergeCell ref="B148:U148"/>
-    <mergeCell ref="B139:U139"/>
-    <mergeCell ref="B140:U140"/>
-    <mergeCell ref="B141:U141"/>
-    <mergeCell ref="B142:U142"/>
-    <mergeCell ref="B143:U143"/>
-    <mergeCell ref="B134:U134"/>
-    <mergeCell ref="B135:U135"/>
-    <mergeCell ref="B136:U136"/>
-    <mergeCell ref="B137:U137"/>
-    <mergeCell ref="B138:U138"/>
-    <mergeCell ref="B129:U129"/>
-    <mergeCell ref="B130:U130"/>
-    <mergeCell ref="B131:U131"/>
-    <mergeCell ref="B132:U132"/>
-    <mergeCell ref="B133:U133"/>
-    <mergeCell ref="B124:U124"/>
-    <mergeCell ref="B125:U125"/>
-    <mergeCell ref="B126:U126"/>
-    <mergeCell ref="B127:U127"/>
-    <mergeCell ref="B128:U128"/>
-    <mergeCell ref="B119:U119"/>
-    <mergeCell ref="B120:U120"/>
-    <mergeCell ref="B121:U121"/>
-    <mergeCell ref="B122:U122"/>
-    <mergeCell ref="B123:U123"/>
-    <mergeCell ref="B114:U114"/>
-    <mergeCell ref="B115:U115"/>
-    <mergeCell ref="B116:U116"/>
-    <mergeCell ref="B117:U117"/>
-    <mergeCell ref="B118:U118"/>
-    <mergeCell ref="B109:U109"/>
-    <mergeCell ref="B110:U110"/>
-    <mergeCell ref="B111:U111"/>
-    <mergeCell ref="B112:U112"/>
-    <mergeCell ref="B113:U113"/>
-    <mergeCell ref="B104:U104"/>
-    <mergeCell ref="B105:U105"/>
-    <mergeCell ref="B106:U106"/>
-    <mergeCell ref="B107:U107"/>
-    <mergeCell ref="B108:U108"/>
-    <mergeCell ref="B99:U99"/>
-    <mergeCell ref="B100:U100"/>
-    <mergeCell ref="B101:U101"/>
-    <mergeCell ref="B102:U102"/>
-    <mergeCell ref="B103:U103"/>
-    <mergeCell ref="B94:U94"/>
-    <mergeCell ref="B95:U95"/>
-    <mergeCell ref="B96:U96"/>
-    <mergeCell ref="B97:U97"/>
-    <mergeCell ref="B98:U98"/>
-    <mergeCell ref="B89:U89"/>
-    <mergeCell ref="B90:U90"/>
-    <mergeCell ref="B91:U91"/>
-    <mergeCell ref="B92:U92"/>
-    <mergeCell ref="B93:U93"/>
-    <mergeCell ref="B84:U84"/>
-    <mergeCell ref="B85:U85"/>
-    <mergeCell ref="B86:U86"/>
-    <mergeCell ref="B87:U87"/>
-    <mergeCell ref="B88:U88"/>
-    <mergeCell ref="B36:U36"/>
-    <mergeCell ref="B37:U37"/>
-    <mergeCell ref="B38:U38"/>
-    <mergeCell ref="B39:U39"/>
-    <mergeCell ref="B40:U40"/>
-    <mergeCell ref="B41:U41"/>
-    <mergeCell ref="B42:U42"/>
-    <mergeCell ref="B43:U43"/>
-    <mergeCell ref="B44:U44"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="AC3:AI3"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="N19:U19"/>
+    <mergeCell ref="N20:U20"/>
+    <mergeCell ref="N21:U21"/>
+    <mergeCell ref="N22:U22"/>
+    <mergeCell ref="N23:U23"/>
+    <mergeCell ref="N24:U24"/>
+    <mergeCell ref="N25:U25"/>
+    <mergeCell ref="N26:U26"/>
+    <mergeCell ref="N27:U27"/>
+    <mergeCell ref="N28:U28"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C25:M25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B49:U49"/>
+    <mergeCell ref="B50:U50"/>
+    <mergeCell ref="B51:U51"/>
+    <mergeCell ref="B52:U52"/>
+    <mergeCell ref="B53:U53"/>
+    <mergeCell ref="B48:U48"/>
+    <mergeCell ref="N34:U34"/>
+    <mergeCell ref="N35:U35"/>
+    <mergeCell ref="N29:U29"/>
+    <mergeCell ref="N30:U30"/>
+    <mergeCell ref="N31:U31"/>
+    <mergeCell ref="N32:U32"/>
+    <mergeCell ref="N33:U33"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B60:U60"/>
+    <mergeCell ref="B61:U61"/>
+    <mergeCell ref="B62:U62"/>
+    <mergeCell ref="B63:U63"/>
+    <mergeCell ref="B54:U54"/>
+    <mergeCell ref="B55:U55"/>
+    <mergeCell ref="B56:U56"/>
+    <mergeCell ref="B57:U57"/>
+    <mergeCell ref="B58:U58"/>
     <mergeCell ref="B45:U45"/>
     <mergeCell ref="B46:U46"/>
     <mergeCell ref="B47:U47"/>
@@ -11272,57 +11011,314 @@
     <mergeCell ref="B67:U67"/>
     <mergeCell ref="B68:U68"/>
     <mergeCell ref="B59:U59"/>
-    <mergeCell ref="B60:U60"/>
-    <mergeCell ref="B61:U61"/>
-    <mergeCell ref="B62:U62"/>
-    <mergeCell ref="B63:U63"/>
-    <mergeCell ref="B54:U54"/>
-    <mergeCell ref="B55:U55"/>
-    <mergeCell ref="B56:U56"/>
-    <mergeCell ref="B57:U57"/>
-    <mergeCell ref="B58:U58"/>
-    <mergeCell ref="B49:U49"/>
-    <mergeCell ref="B50:U50"/>
-    <mergeCell ref="B51:U51"/>
-    <mergeCell ref="B52:U52"/>
-    <mergeCell ref="B53:U53"/>
-    <mergeCell ref="B48:U48"/>
-    <mergeCell ref="N34:U34"/>
-    <mergeCell ref="N35:U35"/>
-    <mergeCell ref="N29:U29"/>
-    <mergeCell ref="N30:U30"/>
-    <mergeCell ref="N31:U31"/>
-    <mergeCell ref="N32:U32"/>
-    <mergeCell ref="N33:U33"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C25:M25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="AC3:AI3"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="N19:U19"/>
-    <mergeCell ref="N20:U20"/>
-    <mergeCell ref="N21:U21"/>
-    <mergeCell ref="N22:U22"/>
-    <mergeCell ref="N23:U23"/>
-    <mergeCell ref="N24:U24"/>
-    <mergeCell ref="N25:U25"/>
-    <mergeCell ref="N26:U26"/>
-    <mergeCell ref="N27:U27"/>
-    <mergeCell ref="N28:U28"/>
+    <mergeCell ref="B36:U36"/>
+    <mergeCell ref="B37:U37"/>
+    <mergeCell ref="B38:U38"/>
+    <mergeCell ref="B39:U39"/>
+    <mergeCell ref="B40:U40"/>
+    <mergeCell ref="B41:U41"/>
+    <mergeCell ref="B42:U42"/>
+    <mergeCell ref="B43:U43"/>
+    <mergeCell ref="B44:U44"/>
+    <mergeCell ref="B89:U89"/>
+    <mergeCell ref="B90:U90"/>
+    <mergeCell ref="B91:U91"/>
+    <mergeCell ref="B92:U92"/>
+    <mergeCell ref="B93:U93"/>
+    <mergeCell ref="B84:U84"/>
+    <mergeCell ref="B85:U85"/>
+    <mergeCell ref="B86:U86"/>
+    <mergeCell ref="B87:U87"/>
+    <mergeCell ref="B88:U88"/>
+    <mergeCell ref="B99:U99"/>
+    <mergeCell ref="B100:U100"/>
+    <mergeCell ref="B101:U101"/>
+    <mergeCell ref="B102:U102"/>
+    <mergeCell ref="B103:U103"/>
+    <mergeCell ref="B94:U94"/>
+    <mergeCell ref="B95:U95"/>
+    <mergeCell ref="B96:U96"/>
+    <mergeCell ref="B97:U97"/>
+    <mergeCell ref="B98:U98"/>
+    <mergeCell ref="B109:U109"/>
+    <mergeCell ref="B110:U110"/>
+    <mergeCell ref="B111:U111"/>
+    <mergeCell ref="B112:U112"/>
+    <mergeCell ref="B113:U113"/>
+    <mergeCell ref="B104:U104"/>
+    <mergeCell ref="B105:U105"/>
+    <mergeCell ref="B106:U106"/>
+    <mergeCell ref="B107:U107"/>
+    <mergeCell ref="B108:U108"/>
+    <mergeCell ref="B119:U119"/>
+    <mergeCell ref="B120:U120"/>
+    <mergeCell ref="B121:U121"/>
+    <mergeCell ref="B122:U122"/>
+    <mergeCell ref="B123:U123"/>
+    <mergeCell ref="B114:U114"/>
+    <mergeCell ref="B115:U115"/>
+    <mergeCell ref="B116:U116"/>
+    <mergeCell ref="B117:U117"/>
+    <mergeCell ref="B118:U118"/>
+    <mergeCell ref="B129:U129"/>
+    <mergeCell ref="B130:U130"/>
+    <mergeCell ref="B131:U131"/>
+    <mergeCell ref="B132:U132"/>
+    <mergeCell ref="B133:U133"/>
+    <mergeCell ref="B124:U124"/>
+    <mergeCell ref="B125:U125"/>
+    <mergeCell ref="B126:U126"/>
+    <mergeCell ref="B127:U127"/>
+    <mergeCell ref="B128:U128"/>
+    <mergeCell ref="B139:U139"/>
+    <mergeCell ref="B140:U140"/>
+    <mergeCell ref="B141:U141"/>
+    <mergeCell ref="B142:U142"/>
+    <mergeCell ref="B143:U143"/>
+    <mergeCell ref="B134:U134"/>
+    <mergeCell ref="B135:U135"/>
+    <mergeCell ref="B136:U136"/>
+    <mergeCell ref="B137:U137"/>
+    <mergeCell ref="B138:U138"/>
+    <mergeCell ref="B149:U149"/>
+    <mergeCell ref="B150:U150"/>
+    <mergeCell ref="B151:U151"/>
+    <mergeCell ref="B152:U152"/>
+    <mergeCell ref="B153:U153"/>
+    <mergeCell ref="B144:U144"/>
+    <mergeCell ref="B145:U145"/>
+    <mergeCell ref="B146:U146"/>
+    <mergeCell ref="B147:U147"/>
+    <mergeCell ref="B148:U148"/>
+    <mergeCell ref="B159:U159"/>
+    <mergeCell ref="B160:U160"/>
+    <mergeCell ref="B161:U161"/>
+    <mergeCell ref="B162:U162"/>
+    <mergeCell ref="B163:U163"/>
+    <mergeCell ref="B154:U154"/>
+    <mergeCell ref="B155:U155"/>
+    <mergeCell ref="B156:U156"/>
+    <mergeCell ref="B157:U157"/>
+    <mergeCell ref="B158:U158"/>
+    <mergeCell ref="B169:U169"/>
+    <mergeCell ref="B170:U170"/>
+    <mergeCell ref="B171:U171"/>
+    <mergeCell ref="B172:U172"/>
+    <mergeCell ref="B173:U173"/>
+    <mergeCell ref="B164:U164"/>
+    <mergeCell ref="B165:U165"/>
+    <mergeCell ref="B166:U166"/>
+    <mergeCell ref="B167:U167"/>
+    <mergeCell ref="B168:U168"/>
+    <mergeCell ref="B179:U179"/>
+    <mergeCell ref="B180:U180"/>
+    <mergeCell ref="B181:U181"/>
+    <mergeCell ref="B182:U182"/>
+    <mergeCell ref="B183:U183"/>
+    <mergeCell ref="B174:U174"/>
+    <mergeCell ref="B175:U175"/>
+    <mergeCell ref="B176:U176"/>
+    <mergeCell ref="B177:U177"/>
+    <mergeCell ref="B178:U178"/>
+    <mergeCell ref="B189:U189"/>
+    <mergeCell ref="B190:U190"/>
+    <mergeCell ref="B191:U191"/>
+    <mergeCell ref="B192:U192"/>
+    <mergeCell ref="B193:U193"/>
+    <mergeCell ref="B184:U184"/>
+    <mergeCell ref="B185:U185"/>
+    <mergeCell ref="B186:U186"/>
+    <mergeCell ref="B187:U187"/>
+    <mergeCell ref="B188:U188"/>
+    <mergeCell ref="B199:U199"/>
+    <mergeCell ref="B200:U200"/>
+    <mergeCell ref="B201:U201"/>
+    <mergeCell ref="B202:U202"/>
+    <mergeCell ref="B203:U203"/>
+    <mergeCell ref="B194:U194"/>
+    <mergeCell ref="B195:U195"/>
+    <mergeCell ref="B196:U196"/>
+    <mergeCell ref="B197:U197"/>
+    <mergeCell ref="B198:U198"/>
+    <mergeCell ref="B209:U209"/>
+    <mergeCell ref="B210:U210"/>
+    <mergeCell ref="B211:U211"/>
+    <mergeCell ref="B212:U212"/>
+    <mergeCell ref="B213:U213"/>
+    <mergeCell ref="B204:U204"/>
+    <mergeCell ref="B205:U205"/>
+    <mergeCell ref="B206:U206"/>
+    <mergeCell ref="B207:U207"/>
+    <mergeCell ref="B208:U208"/>
+    <mergeCell ref="B219:U219"/>
+    <mergeCell ref="B220:U220"/>
+    <mergeCell ref="B221:U221"/>
+    <mergeCell ref="B222:U222"/>
+    <mergeCell ref="B223:U223"/>
+    <mergeCell ref="B214:U214"/>
+    <mergeCell ref="B215:U215"/>
+    <mergeCell ref="B216:U216"/>
+    <mergeCell ref="B217:U217"/>
+    <mergeCell ref="B218:U218"/>
+    <mergeCell ref="B229:U229"/>
+    <mergeCell ref="B230:U230"/>
+    <mergeCell ref="B231:U231"/>
+    <mergeCell ref="B232:U232"/>
+    <mergeCell ref="B233:U233"/>
+    <mergeCell ref="B224:U224"/>
+    <mergeCell ref="B225:U225"/>
+    <mergeCell ref="B226:U226"/>
+    <mergeCell ref="B227:U227"/>
+    <mergeCell ref="B228:U228"/>
+    <mergeCell ref="B239:U239"/>
+    <mergeCell ref="B240:U240"/>
+    <mergeCell ref="B241:U241"/>
+    <mergeCell ref="B242:U242"/>
+    <mergeCell ref="B243:U243"/>
+    <mergeCell ref="B234:U234"/>
+    <mergeCell ref="B235:U235"/>
+    <mergeCell ref="B236:U236"/>
+    <mergeCell ref="B237:U237"/>
+    <mergeCell ref="B238:U238"/>
+    <mergeCell ref="B249:U249"/>
+    <mergeCell ref="B250:U250"/>
+    <mergeCell ref="B251:U251"/>
+    <mergeCell ref="B252:U252"/>
+    <mergeCell ref="B253:U253"/>
+    <mergeCell ref="B244:U244"/>
+    <mergeCell ref="B245:U245"/>
+    <mergeCell ref="B246:U246"/>
+    <mergeCell ref="B247:U247"/>
+    <mergeCell ref="B248:U248"/>
+    <mergeCell ref="B259:U259"/>
+    <mergeCell ref="B260:U260"/>
+    <mergeCell ref="B261:U261"/>
+    <mergeCell ref="B262:U262"/>
+    <mergeCell ref="B263:U263"/>
+    <mergeCell ref="B254:U254"/>
+    <mergeCell ref="B255:U255"/>
+    <mergeCell ref="B256:U256"/>
+    <mergeCell ref="B257:U257"/>
+    <mergeCell ref="B258:U258"/>
+    <mergeCell ref="B269:U269"/>
+    <mergeCell ref="B270:U270"/>
+    <mergeCell ref="B271:U271"/>
+    <mergeCell ref="B272:U272"/>
+    <mergeCell ref="B273:U273"/>
+    <mergeCell ref="B264:U264"/>
+    <mergeCell ref="B265:U265"/>
+    <mergeCell ref="B266:U266"/>
+    <mergeCell ref="B267:U267"/>
+    <mergeCell ref="B268:U268"/>
+    <mergeCell ref="B279:U279"/>
+    <mergeCell ref="B280:U280"/>
+    <mergeCell ref="B281:U281"/>
+    <mergeCell ref="B282:U282"/>
+    <mergeCell ref="B283:U283"/>
+    <mergeCell ref="B274:U274"/>
+    <mergeCell ref="B275:U275"/>
+    <mergeCell ref="B276:U276"/>
+    <mergeCell ref="B277:U277"/>
+    <mergeCell ref="B278:U278"/>
+    <mergeCell ref="B289:U289"/>
+    <mergeCell ref="B290:U290"/>
+    <mergeCell ref="B291:U291"/>
+    <mergeCell ref="B292:U292"/>
+    <mergeCell ref="B293:U293"/>
+    <mergeCell ref="B284:U284"/>
+    <mergeCell ref="B285:U285"/>
+    <mergeCell ref="B286:U286"/>
+    <mergeCell ref="B287:U287"/>
+    <mergeCell ref="B288:U288"/>
+    <mergeCell ref="B299:U299"/>
+    <mergeCell ref="B300:U300"/>
+    <mergeCell ref="B301:U301"/>
+    <mergeCell ref="B302:U302"/>
+    <mergeCell ref="B303:U303"/>
+    <mergeCell ref="B294:U294"/>
+    <mergeCell ref="B295:U295"/>
+    <mergeCell ref="B296:U296"/>
+    <mergeCell ref="B297:U297"/>
+    <mergeCell ref="B298:U298"/>
+    <mergeCell ref="B309:U309"/>
+    <mergeCell ref="B310:U310"/>
+    <mergeCell ref="B311:U311"/>
+    <mergeCell ref="B312:U312"/>
+    <mergeCell ref="B313:U313"/>
+    <mergeCell ref="B304:U304"/>
+    <mergeCell ref="B305:U305"/>
+    <mergeCell ref="B306:U306"/>
+    <mergeCell ref="B307:U307"/>
+    <mergeCell ref="B308:U308"/>
+    <mergeCell ref="B319:U319"/>
+    <mergeCell ref="B320:U320"/>
+    <mergeCell ref="B321:U321"/>
+    <mergeCell ref="B322:U322"/>
+    <mergeCell ref="B323:U323"/>
+    <mergeCell ref="B314:U314"/>
+    <mergeCell ref="B315:U315"/>
+    <mergeCell ref="B316:U316"/>
+    <mergeCell ref="B317:U317"/>
+    <mergeCell ref="B318:U318"/>
+    <mergeCell ref="B329:U329"/>
+    <mergeCell ref="B330:U330"/>
+    <mergeCell ref="B331:U331"/>
+    <mergeCell ref="B332:U332"/>
+    <mergeCell ref="B333:U333"/>
+    <mergeCell ref="B324:U324"/>
+    <mergeCell ref="B325:U325"/>
+    <mergeCell ref="B326:U326"/>
+    <mergeCell ref="B327:U327"/>
+    <mergeCell ref="B328:U328"/>
+    <mergeCell ref="B339:U339"/>
+    <mergeCell ref="B340:U340"/>
+    <mergeCell ref="B341:U341"/>
+    <mergeCell ref="B342:U342"/>
+    <mergeCell ref="B343:U343"/>
+    <mergeCell ref="B334:U334"/>
+    <mergeCell ref="B335:U335"/>
+    <mergeCell ref="B336:U336"/>
+    <mergeCell ref="B337:U337"/>
+    <mergeCell ref="B338:U338"/>
+    <mergeCell ref="B349:U349"/>
+    <mergeCell ref="B350:U350"/>
+    <mergeCell ref="B351:U351"/>
+    <mergeCell ref="B352:U352"/>
+    <mergeCell ref="B353:U353"/>
+    <mergeCell ref="B344:U344"/>
+    <mergeCell ref="B345:U345"/>
+    <mergeCell ref="B346:U346"/>
+    <mergeCell ref="B347:U347"/>
+    <mergeCell ref="B348:U348"/>
+    <mergeCell ref="B359:U359"/>
+    <mergeCell ref="B360:U360"/>
+    <mergeCell ref="B361:U361"/>
+    <mergeCell ref="B362:U362"/>
+    <mergeCell ref="B363:U363"/>
+    <mergeCell ref="B354:U354"/>
+    <mergeCell ref="B355:U355"/>
+    <mergeCell ref="B356:U356"/>
+    <mergeCell ref="B357:U357"/>
+    <mergeCell ref="B358:U358"/>
+    <mergeCell ref="B369:U369"/>
+    <mergeCell ref="B370:U370"/>
+    <mergeCell ref="B371:U371"/>
+    <mergeCell ref="B372:U372"/>
+    <mergeCell ref="B373:U373"/>
+    <mergeCell ref="B364:U364"/>
+    <mergeCell ref="B365:U365"/>
+    <mergeCell ref="B366:U366"/>
+    <mergeCell ref="B367:U367"/>
+    <mergeCell ref="B368:U368"/>
+    <mergeCell ref="B379:U379"/>
+    <mergeCell ref="B380:U380"/>
+    <mergeCell ref="B381:U381"/>
+    <mergeCell ref="B382:U382"/>
+    <mergeCell ref="B374:U374"/>
+    <mergeCell ref="B375:U375"/>
+    <mergeCell ref="B376:U376"/>
+    <mergeCell ref="B377:U377"/>
+    <mergeCell ref="B378:U378"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11408,7 +11404,7 @@
       </c>
       <c r="B2">
         <f>Sheet1!AC5</f>
-        <v>202.4</v>
+        <v>276</v>
       </c>
       <c r="C2">
         <f>Sheet1!AD5</f>
@@ -11452,11 +11448,11 @@
       </c>
       <c r="M2">
         <f>Sheet1!AN5</f>
-        <v>271.21599999999995</v>
+        <v>369.84</v>
       </c>
       <c r="N2">
         <f>Sheet1!AO5</f>
-        <v>1.012</v>
+        <v>1.38</v>
       </c>
       <c r="O2" t="e">
         <f>Sheet1!#REF!</f>
@@ -11464,7 +11460,7 @@
       </c>
       <c r="P2">
         <f>Sheet1!AP5</f>
-        <v>0.34408</v>
+        <v>0.46920000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -11510,7 +11506,7 @@
       </c>
       <c r="K3">
         <f>Sheet1!AL6</f>
-        <v>1221</v>
+        <v>1665</v>
       </c>
       <c r="L3">
         <f>Sheet1!AM6</f>
@@ -11518,11 +11514,11 @@
       </c>
       <c r="M3">
         <f>Sheet1!AN6</f>
-        <v>1343.1000000000001</v>
+        <v>1831.5000000000002</v>
       </c>
       <c r="N3">
         <f>Sheet1!AO6</f>
-        <v>7.8287000000000004</v>
+        <v>10.675500000000003</v>
       </c>
       <c r="O3" t="e">
         <f>Sheet1!#REF!</f>
@@ -11548,7 +11544,7 @@
       </c>
       <c r="D4">
         <f>Sheet1!AE7</f>
-        <v>209.00000000000003</v>
+        <v>285</v>
       </c>
       <c r="E4">
         <f>Sheet1!AF7</f>
@@ -11584,11 +11580,11 @@
       </c>
       <c r="M4">
         <f>Sheet1!AN7</f>
-        <v>287.37500000000006</v>
+        <v>391.875</v>
       </c>
       <c r="N4">
         <f>Sheet1!AO7</f>
-        <v>1.6720000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="O4" t="e">
         <f>Sheet1!#REF!</f>
@@ -11596,7 +11592,7 @@
       </c>
       <c r="P4">
         <f>Sheet1!AP7</f>
-        <v>0.62700000000000011</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -11654,7 +11650,7 @@
       </c>
       <c r="N5">
         <f>Sheet1!AO8</f>
-        <v>1.8392000000000004</v>
+        <v>2.508</v>
       </c>
       <c r="O5" t="e">
         <f>Sheet1!#REF!</f>
@@ -11786,7 +11782,7 @@
       </c>
       <c r="N7">
         <f>Sheet1!AO10</f>
-        <v>10.084054200000002</v>
+        <v>13.587783000000003</v>
       </c>
       <c r="O7" t="e">
         <f>Sheet1!#REF!</f>
@@ -11836,7 +11832,7 @@
       </c>
       <c r="J8">
         <f>Sheet1!AK11</f>
-        <v>541.20000000000005</v>
+        <v>738</v>
       </c>
       <c r="K8">
         <f>Sheet1!AL11</f>
@@ -11848,11 +11844,11 @@
       </c>
       <c r="M8">
         <f>Sheet1!AN11</f>
-        <v>649.44000000000005</v>
+        <v>885.6</v>
       </c>
       <c r="N8">
         <f>Sheet1!AO11</f>
-        <v>8.1180000000000003</v>
+        <v>11.07</v>
       </c>
       <c r="O8" t="e">
         <f>Sheet1!#REF!</f>
@@ -11860,7 +11856,7 @@
       </c>
       <c r="P8">
         <f>Sheet1!AP11</f>
-        <v>1.6236000000000002</v>
+        <v>2.214</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -11902,7 +11898,7 @@
       </c>
       <c r="J9">
         <f>Sheet1!AK12</f>
-        <v>541.20000000000005</v>
+        <v>738</v>
       </c>
       <c r="K9">
         <f>Sheet1!AL12</f>
@@ -11914,11 +11910,11 @@
       </c>
       <c r="M9">
         <f>Sheet1!AN12</f>
-        <v>649.44000000000005</v>
+        <v>885.6</v>
       </c>
       <c r="N9">
         <f>Sheet1!AO12</f>
-        <v>8.1180000000000003</v>
+        <v>11.07</v>
       </c>
       <c r="O9" t="e">
         <f>Sheet1!#REF!</f>
@@ -11926,7 +11922,7 @@
       </c>
       <c r="P9">
         <f>Sheet1!AP12</f>
-        <v>1.6236000000000002</v>
+        <v>2.214</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -11984,7 +11980,7 @@
       </c>
       <c r="N10">
         <f>Sheet1!AO13</f>
-        <v>8.929800000000002</v>
+        <v>12.177000000000001</v>
       </c>
       <c r="O10" t="e">
         <f>Sheet1!#REF!</f>
@@ -12050,7 +12046,7 @@
       </c>
       <c r="N11">
         <f>Sheet1!AO14</f>
-        <v>8.7593220000000009</v>
+        <v>11.944530000000002</v>
       </c>
       <c r="O11" t="e">
         <f>Sheet1!#REF!</f>
@@ -12116,7 +12112,7 @@
       </c>
       <c r="N12">
         <f>Sheet1!AO15</f>
-        <v>60.589929620000007</v>
+        <v>71.88311130000001</v>
       </c>
       <c r="O12" t="e">
         <f>Sheet1!#REF!</f>
